--- a/DynamicScalingService/resultats_tests.xlsx
+++ b/DynamicScalingService/resultats_tests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,811 +479,940 @@
           <t>tiempo_ciclo</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>cpu_total_pct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ram_total_mb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-15 17:02:57</t>
+          <t>2025-05-18 11:41:17</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D2" t="n">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="E2" t="n">
-        <v>54226358.86</v>
+        <v>45538157.71</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:02</t>
+          <t>2025-05-18 11:41:36</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.45</v>
+        <v>6.12</v>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D3" t="n">
-        <v>212</v>
+        <v>189.5</v>
       </c>
       <c r="E3" t="n">
-        <v>11.37</v>
+        <v>12.26</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.45</v>
+        <v>6.12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>929.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7445.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:08</t>
+          <t>2025-05-18 11:41:51</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.71</v>
+        <v>24.04</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.33</v>
+        <v>126.33</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>-60</v>
+        <v>-99</v>
       </c>
       <c r="I4" t="n">
-        <v>5.26</v>
+        <v>17.93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7957.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:14</t>
+          <t>2025-05-18 11:42:07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.49</v>
+        <v>39.18</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>132.75</v>
+        <v>94.75</v>
       </c>
       <c r="E5" t="n">
-        <v>18.53</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>-99</v>
       </c>
       <c r="I5" t="n">
-        <v>5.78</v>
+        <v>15.13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7957.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:19</t>
+          <t>2025-05-18 11:42:22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.71</v>
+        <v>54.32</v>
       </c>
       <c r="C6" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>123.2</v>
+        <v>75.8</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="I6" t="n">
-        <v>5.22</v>
+        <v>15.14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7955.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:24</t>
+          <t>2025-05-18 11:42:28</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.85</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="H7" t="n">
-        <v>-21</v>
+        <v>58</v>
       </c>
       <c r="I7" t="n">
-        <v>5.14</v>
+        <v>16.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>79.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:29</t>
+          <t>2025-05-18 11:42:40</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.17</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="D8" t="n">
-        <v>58.6</v>
+        <v>56.4</v>
       </c>
       <c r="E8" t="n">
-        <v>18.98</v>
+        <v>12.84</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I8" t="n">
-        <v>5.32</v>
+        <v>5.61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>451.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4572.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:34</t>
+          <t>2025-05-18 11:42:56</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.37</v>
+        <v>88.25</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>74.59999999999999</v>
+        <v>56.4</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-6</v>
+        <v>-99</v>
       </c>
       <c r="I9" t="n">
-        <v>5.21</v>
+        <v>11.93</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7957.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:40</t>
+          <t>2025-05-18 11:43:11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.52</v>
+        <v>103.55</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.2</v>
+        <v>56.4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-19</v>
+        <v>-99</v>
       </c>
       <c r="I10" t="n">
-        <v>5.15</v>
+        <v>15.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7957.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:45</t>
+          <t>2025-05-18 11:43:26</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.82</v>
+        <v>118.69</v>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="E11" t="n">
-        <v>18.71</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>24</v>
+        <v>-99</v>
       </c>
       <c r="I11" t="n">
-        <v>5.29</v>
+        <v>15.14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7957.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:50</t>
+          <t>2025-05-18 11:43:32</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.03</v>
+        <v>134.99</v>
       </c>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>56.6</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6.51</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>-5</v>
+        <v>59</v>
       </c>
       <c r="I12" t="n">
-        <v>5.21</v>
+        <v>16.29</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>79.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-05-15 17:03:55</t>
+          <t>2025-05-18 11:43:44</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.17</v>
+        <v>140.56</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="D13" t="n">
-        <v>51.8</v>
+        <v>58.8</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>-19</v>
+        <v>40</v>
       </c>
       <c r="I13" t="n">
-        <v>5.14</v>
+        <v>5.58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>723</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4626.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:00</t>
+          <t>2025-05-18 11:44:00</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.45</v>
+        <v>152.17</v>
       </c>
       <c r="C14" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>58.8</v>
       </c>
       <c r="E14" t="n">
-        <v>19.14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
+        <v>-99</v>
       </c>
       <c r="I14" t="n">
-        <v>5.28</v>
+        <v>11.61</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7956.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:06</t>
+          <t>2025-05-18 11:44:15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.65000000000001</v>
+        <v>167.45</v>
       </c>
       <c r="C15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>58.8</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-6</v>
+        <v>-99</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>15.28</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7956.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:11</t>
+          <t>2025-05-18 11:44:30</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.81</v>
+        <v>182.58</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>52.2</v>
+        <v>58.8</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>-19</v>
+        <v>-99</v>
       </c>
       <c r="I16" t="n">
-        <v>5.16</v>
+        <v>15.13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7956.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:16</t>
+          <t>2025-05-18 11:44:36</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.09</v>
+        <v>198.85</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>56.2</v>
+        <v>58.8</v>
       </c>
       <c r="E17" t="n">
-        <v>18.95</v>
+        <v>6.52</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H17" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I17" t="n">
-        <v>5.28</v>
+        <v>16.27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:21</t>
+          <t>2025-05-18 11:44:48</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.28</v>
+        <v>204.46</v>
       </c>
       <c r="C18" t="n">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>58.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>14.46</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="I18" t="n">
-        <v>5.19</v>
+        <v>5.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>526.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4694.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:26</t>
+          <t>2025-05-18 11:45:04</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.41</v>
+        <v>216.42</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>51.8</v>
+        <v>58.6</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>-19</v>
+        <v>-99</v>
       </c>
       <c r="I19" t="n">
-        <v>5.14</v>
+        <v>11.96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7957.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:32</t>
+          <t>2025-05-18 11:45:19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.69</v>
+        <v>231.69</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>55.8</v>
+        <v>58.6</v>
       </c>
       <c r="E20" t="n">
-        <v>18.93</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>24</v>
+        <v>-99</v>
       </c>
       <c r="I20" t="n">
-        <v>5.28</v>
+        <v>15.27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7957.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:37</t>
+          <t>2025-05-18 11:45:34</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.90000000000001</v>
+        <v>246.82</v>
       </c>
       <c r="C21" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>72</v>
+        <v>58.6</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>-4</v>
+        <v>-99</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>15.13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7956.98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:42</t>
+          <t>2025-05-18 11:45:41</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.02</v>
+        <v>263.09</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>59.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="H22" t="n">
-        <v>-20</v>
+        <v>61</v>
       </c>
       <c r="I22" t="n">
-        <v>5.13</v>
+        <v>16.28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>79.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:47</t>
+          <t>2025-05-18 11:45:53</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110.31</v>
+        <v>268.68</v>
       </c>
       <c r="C23" t="n">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="D23" t="n">
-        <v>56.4</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
-        <v>19.09</v>
+        <v>12.89</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G23" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I23" t="n">
-        <v>5.29</v>
+        <v>5.58</v>
+      </c>
+      <c r="J23" t="n">
+        <v>517.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4831.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:53</t>
+          <t>2025-05-18 11:46:08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>115.51</v>
+        <v>280.81</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>72.8</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="I24" t="n">
-        <v>5.19</v>
+        <v>12.13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7958.88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-05-15 17:04:58</t>
+          <t>2025-05-18 11:46:23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.65</v>
+        <v>295.97</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>52.8</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="I25" t="n">
-        <v>5.14</v>
+        <v>15.16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7958.61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-05-15 17:05:03</t>
+          <t>2025-05-18 11:46:38</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>125.93</v>
+        <v>311.1</v>
       </c>
       <c r="C26" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>56.8</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
-        <v>19.11</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>25</v>
+        <v>-99</v>
       </c>
       <c r="I26" t="n">
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-05-15 17:05:08</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>131.12</v>
-      </c>
-      <c r="C27" t="n">
-        <v>76</v>
-      </c>
-      <c r="D27" t="n">
-        <v>72</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
-      <c r="G27" t="n">
-        <v>19</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.19</v>
+        <v>15.13</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7958.63</v>
       </c>
     </row>
   </sheetData>
